--- a/Test Files/Alt Index - Update.xlsx
+++ b/Test Files/Alt Index - Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\WCP Research Tool WebApp\Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC1FDF-7B7C-4AE1-8A69-F6886DB64126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F18395-89BA-4652-8424-82F3BD5DEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1950" windowWidth="17580" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2820" windowWidth="17580" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>AltIndex-A</t>
   </si>
@@ -149,18 +149,6 @@
     <t>117-S17-K17-U17</t>
   </si>
   <si>
-    <t>118-S18-K18-U18</t>
-  </si>
-  <si>
-    <t>119-S19-K19-U19</t>
-  </si>
-  <si>
-    <t>120-S20-K20-U20</t>
-  </si>
-  <si>
-    <t>121-S21-K21-U21</t>
-  </si>
-  <si>
     <t>AltIndex-U</t>
   </si>
   <si>
@@ -183,6 +171,24 @@
   </si>
   <si>
     <t>NoRmal</t>
+  </si>
+  <si>
+    <t>R-218-I18-Cf1-E368</t>
+  </si>
+  <si>
+    <t>R-219-I19-Ce1-922D</t>
+  </si>
+  <si>
+    <t>R-220-I20-CT1-C738</t>
+  </si>
+  <si>
+    <t>R-222-I22-CS2-7D79</t>
+  </si>
+  <si>
+    <t>R-221-I21-CE2-721D</t>
+  </si>
+  <si>
+    <t>AltIndex-z</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,13 +622,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,20 +639,20 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">10*ROW()</f>
+        <f t="shared" ref="C3:C24" si="0">10*ROW()</f>
         <v>30</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -664,13 +670,13 @@
         <v>300</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,13 +694,13 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,13 +718,13 @@
         <v>200</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,13 +742,13 @@
         <v>300</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,13 +766,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,13 +790,13 @@
         <v>200</v>
       </c>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,13 +814,13 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,13 +838,13 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,13 +862,13 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,13 +910,13 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,13 +934,13 @@
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,13 +958,13 @@
         <v>300</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,13 +982,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,18 +1006,18 @@
         <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1024,18 +1030,18 @@
         <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1048,18 +1054,18 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1072,21 +1078,21 @@
         <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1096,13 +1102,37 @@
         <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Test Files/Alt Index - Update.xlsx
+++ b/Test Files/Alt Index - Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\WCP Research Tool WebApp\Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F18395-89BA-4652-8424-82F3BD5DEC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58D14E-E43A-489F-9AEC-72ECC71F75E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2820" windowWidth="17580" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="3165" windowWidth="17580" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -173,22 +173,22 @@
     <t>NoRmal</t>
   </si>
   <si>
-    <t>R-218-I18-Cf1-E368</t>
-  </si>
-  <si>
-    <t>R-219-I19-Ce1-922D</t>
-  </si>
-  <si>
-    <t>R-220-I20-CT1-C738</t>
-  </si>
-  <si>
-    <t>R-222-I22-CS2-7D79</t>
-  </si>
-  <si>
-    <t>R-221-I21-CE2-721D</t>
-  </si>
-  <si>
     <t>AltIndex-z</t>
+  </si>
+  <si>
+    <t>R-218-I18-Cf1-AE28</t>
+  </si>
+  <si>
+    <t>R-219-I19-Ce1-8FFF</t>
+  </si>
+  <si>
+    <t>R-220-I20-CT1-6919</t>
+  </si>
+  <si>
+    <t>R-221-I21-CE2-9AD5</t>
+  </si>
+  <si>
+    <t>R-222-I22-CS2-06EC</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="0">10*ROW()</f>
+        <f t="shared" ref="C3:C23" si="0">10*ROW()</f>
         <v>30</v>
       </c>
       <c r="D3">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
